--- a/outputs/Slight_rate_ranges_M.xlsx
+++ b/outputs/Slight_rate_ranges_M.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>221.459647370213</v>
+        <v>221.52858578901126</v>
       </c>
       <c r="C2" t="n">
-        <v>651.3168415947024</v>
+        <v>651.2754128602176</v>
       </c>
       <c r="D2" t="n">
-        <v>376.4436721210866</v>
+        <v>376.35505266369836</v>
       </c>
       <c r="E2" t="n">
-        <v>610.0888065762111</v>
+        <v>610.1450985374627</v>
       </c>
       <c r="F2" t="n">
-        <v>450.9081130700579</v>
+        <v>450.92505899613286</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>141.0474882821222</v>
+        <v>141.011820012478</v>
       </c>
       <c r="C3" t="n">
-        <v>341.6245098108801</v>
+        <v>341.6047237794589</v>
       </c>
       <c r="D3" t="n">
-        <v>143.31937572152353</v>
+        <v>143.33473807234802</v>
       </c>
       <c r="E3" t="n">
-        <v>224.69133419944316</v>
+        <v>224.7550353406935</v>
       </c>
       <c r="F3" t="n">
-        <v>204.9366135606893</v>
+        <v>204.94243860132255</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>265.7647424214835</v>
+        <v>265.94037806310354</v>
       </c>
       <c r="C4" t="n">
-        <v>633.8157914319935</v>
+        <v>634.2230713635337</v>
       </c>
       <c r="D4" t="n">
-        <v>491.6254947648627</v>
+        <v>491.95778799462545</v>
       </c>
       <c r="E4" t="n">
-        <v>683.5667372860323</v>
+        <v>684.1944425290185</v>
       </c>
       <c r="F4" t="n">
-        <v>396.351625930404</v>
+        <v>396.62827197084687</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>362.100141546089</v>
+        <v>362.1791995011976</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.4985886248048</v>
+        <v>1054.060488849075</v>
       </c>
       <c r="D5" t="n">
-        <v>441.05458330598856</v>
+        <v>441.2779538322123</v>
       </c>
       <c r="E5" t="n">
-        <v>486.2008459306218</v>
+        <v>485.8486660095007</v>
       </c>
       <c r="F5" t="n">
-        <v>572.1653298489173</v>
+        <v>571.9861454506622</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>485.9310074181028</v>
+        <v>485.3893061573354</v>
       </c>
       <c r="C6" t="n">
-        <v>1326.415366849545</v>
+        <v>1326.6683325465435</v>
       </c>
       <c r="D6" t="n">
-        <v>655.7468698042643</v>
+        <v>655.924855136072</v>
       </c>
       <c r="E6" t="n">
-        <v>852.1801438832174</v>
+        <v>851.6648699428138</v>
       </c>
       <c r="F6" t="n">
-        <v>900.9720084054849</v>
+        <v>900.7575638572523</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>346.5226661916659</v>
+        <v>345.66930835159957</v>
       </c>
       <c r="C7" t="n">
-        <v>354.51569734687547</v>
+        <v>354.85308518790714</v>
       </c>
       <c r="D7" t="n">
-        <v>74.69550442960004</v>
+        <v>74.59453480935487</v>
       </c>
       <c r="E7" t="n">
-        <v>145.3309811562945</v>
+        <v>145.39441415363353</v>
       </c>
       <c r="F7" t="n">
-        <v>177.6239475157863</v>
+        <v>177.67099024428092</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>221.4671921375213</v>
+        <v>221.54184675689055</v>
       </c>
       <c r="C2" t="n">
-        <v>651.3575003454318</v>
+        <v>651.2695785398934</v>
       </c>
       <c r="D2" t="n">
-        <v>376.4702502806165</v>
+        <v>376.35986678161646</v>
       </c>
       <c r="E2" t="n">
-        <v>610.0474787863818</v>
+        <v>610.1164941823826</v>
       </c>
       <c r="F2" t="n">
-        <v>450.9106627618704</v>
+        <v>450.9338590207911</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>141.06405036257138</v>
+        <v>141.0179234404776</v>
       </c>
       <c r="C3" t="n">
-        <v>341.55608972638686</v>
+        <v>341.55771979638575</v>
       </c>
       <c r="D3" t="n">
-        <v>143.31908453773087</v>
+        <v>143.35347668579445</v>
       </c>
       <c r="E3" t="n">
-        <v>224.66173954715634</v>
+        <v>224.71786435405662</v>
       </c>
       <c r="F3" t="n">
-        <v>204.92439381219836</v>
+        <v>204.92985490224117</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>265.7493832231539</v>
+        <v>265.98481929830183</v>
       </c>
       <c r="C4" t="n">
-        <v>633.626435492065</v>
+        <v>634.1070789301491</v>
       </c>
       <c r="D4" t="n">
-        <v>491.78741196699144</v>
+        <v>491.95948372640623</v>
       </c>
       <c r="E4" t="n">
-        <v>683.1791775768088</v>
+        <v>684.3260685034594</v>
       </c>
       <c r="F4" t="n">
-        <v>396.37568239892374</v>
+        <v>396.6623416403035</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>362.04759883035337</v>
+        <v>362.1989823327176</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.147182120873</v>
+        <v>1053.6702336107517</v>
       </c>
       <c r="D5" t="n">
-        <v>440.688770380527</v>
+        <v>441.053810911083</v>
       </c>
       <c r="E5" t="n">
-        <v>486.1163348535159</v>
+        <v>485.6172041571415</v>
       </c>
       <c r="F5" t="n">
-        <v>572.1946295103482</v>
+        <v>571.9183537292824</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>485.9660504239547</v>
+        <v>485.529241379526</v>
       </c>
       <c r="C6" t="n">
-        <v>1326.5090718052093</v>
+        <v>1326.7352483907189</v>
       </c>
       <c r="D6" t="n">
-        <v>655.6614027138473</v>
+        <v>655.4073327965998</v>
       </c>
       <c r="E6" t="n">
-        <v>851.8873929950611</v>
+        <v>851.4582817241795</v>
       </c>
       <c r="F6" t="n">
-        <v>901.0826170302998</v>
+        <v>900.7054452599489</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>345.9884702109531</v>
+        <v>345.17695519281733</v>
       </c>
       <c r="C7" t="n">
-        <v>354.42933261071977</v>
+        <v>354.80933404459006</v>
       </c>
       <c r="D7" t="n">
-        <v>74.60261906024479</v>
+        <v>74.58526041270716</v>
       </c>
       <c r="E7" t="n">
-        <v>145.3727385559909</v>
+        <v>145.28034524016638</v>
       </c>
       <c r="F7" t="n">
-        <v>177.63611795733684</v>
+        <v>177.71647297330128</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>220.47244849797818</v>
+        <v>220.56707353615104</v>
       </c>
       <c r="C2" t="n">
-        <v>649.125768293632</v>
+        <v>649.2594134405311</v>
       </c>
       <c r="D2" t="n">
-        <v>374.54179893616305</v>
+        <v>374.2383536074919</v>
       </c>
       <c r="E2" t="n">
-        <v>608.2731008855138</v>
+        <v>608.2845597678797</v>
       </c>
       <c r="F2" t="n">
-        <v>450.07554465890587</v>
+        <v>450.10147446179724</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>139.553236796576</v>
+        <v>139.45014441732567</v>
       </c>
       <c r="C3" t="n">
-        <v>338.50390345548476</v>
+        <v>338.5251009721979</v>
       </c>
       <c r="D3" t="n">
-        <v>141.1102779438051</v>
+        <v>141.29206753972923</v>
       </c>
       <c r="E3" t="n">
-        <v>222.613931439699</v>
+        <v>222.59774088399607</v>
       </c>
       <c r="F3" t="n">
-        <v>203.80634921501678</v>
+        <v>203.85860110057223</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>262.7844056833238</v>
+        <v>263.0333727911996</v>
       </c>
       <c r="C4" t="n">
-        <v>625.5861007600431</v>
+        <v>626.4040208218094</v>
       </c>
       <c r="D4" t="n">
-        <v>481.7777192743484</v>
+        <v>482.34867651976816</v>
       </c>
       <c r="E4" t="n">
-        <v>670.6437750395694</v>
+        <v>672.1724576845439</v>
       </c>
       <c r="F4" t="n">
-        <v>393.4325440692599</v>
+        <v>393.83340589674316</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>352.18248074328454</v>
+        <v>352.39192259784676</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.0741725610615</v>
+        <v>1035.628142894865</v>
       </c>
       <c r="D5" t="n">
-        <v>427.7670248552306</v>
+        <v>428.08709960414876</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7500369294118</v>
+        <v>476.66763155311395</v>
       </c>
       <c r="F5" t="n">
-        <v>565.5980285668672</v>
+        <v>566.1445840004011</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>472.04171479040224</v>
+        <v>470.79478108372246</v>
       </c>
       <c r="C6" t="n">
-        <v>1307.7018353405185</v>
+        <v>1308.3659108357015</v>
       </c>
       <c r="D6" t="n">
-        <v>636.1552198226167</v>
+        <v>636.9166341382195</v>
       </c>
       <c r="E6" t="n">
-        <v>840.5778485561968</v>
+        <v>839.6517977561198</v>
       </c>
       <c r="F6" t="n">
-        <v>892.5882261896589</v>
+        <v>892.5909909596453</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>322.48202256337146</v>
+        <v>320.9655338742762</v>
       </c>
       <c r="C7" t="n">
-        <v>342.65356416430484</v>
+        <v>344.26024822323825</v>
       </c>
       <c r="D7" t="n">
-        <v>69.93592684271349</v>
+        <v>69.62359550737837</v>
       </c>
       <c r="E7" t="n">
-        <v>141.05302533294017</v>
+        <v>140.94593621275615</v>
       </c>
       <c r="F7" t="n">
-        <v>174.0861027224983</v>
+        <v>174.19253909040606</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>222.50689318567865</v>
+        <v>222.49850074850747</v>
       </c>
       <c r="C2" t="n">
-        <v>653.456184922431</v>
+        <v>653.2028272073105</v>
       </c>
       <c r="D2" t="n">
-        <v>378.3537493722854</v>
+        <v>378.2890609783862</v>
       </c>
       <c r="E2" t="n">
-        <v>611.9846673615806</v>
+        <v>612.0617419768694</v>
       </c>
       <c r="F2" t="n">
-        <v>451.7174403270954</v>
+        <v>451.7716921994573</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>142.61144014528315</v>
+        <v>142.54135125554708</v>
       </c>
       <c r="C3" t="n">
-        <v>344.95625566937116</v>
+        <v>345.0047839581849</v>
       </c>
       <c r="D3" t="n">
-        <v>145.46901483642685</v>
+        <v>145.571458656553</v>
       </c>
       <c r="E3" t="n">
-        <v>226.8293184055518</v>
+        <v>226.8839146925772</v>
       </c>
       <c r="F3" t="n">
-        <v>206.02263854310456</v>
+        <v>206.0354573416456</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>268.55350067738516</v>
+        <v>268.7739417176843</v>
       </c>
       <c r="C4" t="n">
-        <v>642.0644493608412</v>
+        <v>642.7766957198795</v>
       </c>
       <c r="D4" t="n">
-        <v>501.1933158014303</v>
+        <v>501.98352156598116</v>
       </c>
       <c r="E4" t="n">
-        <v>696.8514591251719</v>
+        <v>695.7903546199138</v>
       </c>
       <c r="F4" t="n">
-        <v>399.20512284104234</v>
+        <v>399.42306468072144</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>372.30198430328494</v>
+        <v>372.3754151855934</v>
       </c>
       <c r="C5" t="n">
-        <v>1073.4389722811306</v>
+        <v>1072.8212176689124</v>
       </c>
       <c r="D5" t="n">
-        <v>455.1126946935423</v>
+        <v>454.8174014308918</v>
       </c>
       <c r="E5" t="n">
-        <v>494.92466181707016</v>
+        <v>495.33943009543685</v>
       </c>
       <c r="F5" t="n">
-        <v>578.5115770474663</v>
+        <v>578.1400288492136</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>499.8108666480324</v>
+        <v>499.67271846481265</v>
       </c>
       <c r="C6" t="n">
-        <v>1344.4808479744543</v>
+        <v>1344.9147531010872</v>
       </c>
       <c r="D6" t="n">
-        <v>675.8333484732555</v>
+        <v>676.7887093458911</v>
       </c>
       <c r="E6" t="n">
-        <v>864.8443988326043</v>
+        <v>864.5829730048331</v>
       </c>
       <c r="F6" t="n">
-        <v>909.036108743838</v>
+        <v>909.2585694025197</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>372.6394502744902</v>
+        <v>374.02465296124103</v>
       </c>
       <c r="C7" t="n">
-        <v>366.43803362566126</v>
+        <v>366.55811719208157</v>
       </c>
       <c r="D7" t="n">
-        <v>79.52087299938415</v>
+        <v>79.33983884892372</v>
       </c>
       <c r="E7" t="n">
-        <v>149.53223607169872</v>
+        <v>149.68066140176808</v>
       </c>
       <c r="F7" t="n">
-        <v>181.11443548935517</v>
+        <v>181.23030485746784</v>
       </c>
     </row>
   </sheetData>
